--- a/Current_Status/activity_log.xlsx
+++ b/Current_Status/activity_log.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleow\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tutor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Alex Dalton</t>
   </si>
@@ -97,12 +102,18 @@
   </si>
   <si>
     <t>Offsite</t>
+  </si>
+  <si>
+    <t>Tutor meeting, group meeting, updating minutes, minutes template, work ethic document, NDA project definition, email Celine, laser lab &amp; telescope tour</t>
+  </si>
+  <si>
+    <t>Group meeting, and updating mintues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -458,15 +469,6 @@
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -511,83 +513,47 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,49 +567,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,6 +670,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -986,519 +1005,522 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="53" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="53" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="53" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="52" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="53" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="53" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="52" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="53" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="38" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="38" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="37" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="38" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:15" ht="28" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="58" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="62" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="33"/>
-    </row>
-    <row r="3" spans="1:15" ht="31" thickBot="1">
-      <c r="A3" s="44" t="s">
+      <c r="N2" s="52"/>
+    </row>
+    <row r="3" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="38" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:15" s="27" customFormat="1" ht="124.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>8</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="40"/>
-    </row>
-    <row r="5" spans="1:15" s="39" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="21">
+        <v>8</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" s="28" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="56"/>
+      <c r="B5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>1.5</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="41"/>
-    </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A6" s="46" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="56"/>
+      <c r="B7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A8" s="46" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="56"/>
+      <c r="B9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A10" s="46" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="56"/>
+      <c r="B11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
+      <c r="C11" s="6"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="70"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
+      <c r="C13" s="6"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="70"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A16" s="46" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="34"/>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="56"/>
+      <c r="B17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A18" s="46" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="34"/>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="56"/>
+      <c r="B19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="35"/>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A20" s="46" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="56"/>
+      <c r="B21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="35"/>
-    </row>
-    <row r="22" spans="1:14" s="8" customFormat="1" ht="71" customHeight="1" thickTop="1">
-      <c r="A22" s="46" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1" ht="71" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="71" customHeight="1" thickBot="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="56"/>
+      <c r="B23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="35"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" hidden="1" thickTop="1"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C2:D2"/>
@@ -1512,6 +1534,11 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
